--- a/DiagramasSecuencia.xlsx
+++ b/DiagramasSecuencia.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Documents\TFG\Diseño\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace-TFG\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11A1E89-A7E5-41D7-95ED-0B7A988FF326}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D2E03DCF-7DE6-4AC5-A39C-A66D544152EC}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +107,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1421972F-C650-4FAB-BC3D-FB8DA8BEA2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1421972F-C650-4FAB-BC3D-FB8DA8BEA2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,7 +187,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2AE715-D69F-49A7-91CF-FF54580AC3D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B2AE715-D69F-49A7-91CF-FF54580AC3D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -268,7 +267,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ACCC4C-EAC8-4900-B1A9-31FC0F84F1D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14ACCC4C-EAC8-4900-B1A9-31FC0F84F1D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -333,13 +332,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>695324</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -348,7 +347,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C30D51-19E8-41C3-AE8C-4BEAFB47E1D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13C30D51-19E8-41C3-AE8C-4BEAFB47E1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,8 +355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="904875"/>
-          <a:ext cx="1257300" cy="533400"/>
+          <a:off x="1457324" y="904875"/>
+          <a:ext cx="2047875" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -394,7 +393,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1200" b="1"/>
-            <a:t>REGISTRO</a:t>
+            <a:t>RegistrarComercio</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1000" b="1"/>
         </a:p>
@@ -405,13 +404,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -420,7 +419,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057B8AC0-24DC-4911-90D6-C58854143880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{057B8AC0-24DC-4911-90D6-C58854143880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,8 +427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886825" y="962025"/>
-          <a:ext cx="2305050" cy="533400"/>
+          <a:off x="8886824" y="962025"/>
+          <a:ext cx="3495675" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -466,7 +465,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="es-ES" sz="1200" b="1"/>
-            <a:t>register(Object, type)</a:t>
+            <a:t>register(Object, refCollection, type)</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1000" b="1"/>
         </a:p>
@@ -482,8 +481,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -492,7 +491,7 @@
         <xdr:cNvPr id="7" name="Elipse 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1485429B-B963-4A9E-BB48-687481C04073}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1485429B-B963-4A9E-BB48-687481C04073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16230600" y="819150"/>
-          <a:ext cx="2305050" cy="533400"/>
+          <a:ext cx="3848100" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -550,7 +549,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> child</a:t>
+            <a:t> refCollection</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1200" b="1">
@@ -570,6 +569,297 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Elipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{057B8AC0-24DC-4911-90D6-C58854143880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="6838950"/>
+          <a:ext cx="3495675" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF00FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1"/>
+            <a:t>login(Object, refCollection, type)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514725" y="1162050"/>
+          <a:ext cx="5372099" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3161699" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="942975"/>
+          <a:ext cx="3161699" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>register(Comercio,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> refCollection, registrarComercio)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="6"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12382499" y="1085850"/>
+          <a:ext cx="3848101" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1948354" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13735050" y="847725"/>
+          <a:ext cx="1948354" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>insert(Comercio,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> refCollection)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -869,11 +1159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5014CCA2-83BD-46AF-BCC3-01A1212DBD77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
